--- a/spreadsheet/macrofree/wafsg_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/wafsg_checklist.ja.xlsx
@@ -7045,7 +7045,7 @@
       </c>
       <c r="D201" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute 専用回線では、オンプレミスと Azure の間にアクティブ/アクティブ接続が構成されている場合、"99.95%" の可用性が保証されます。このモードでは、ExpressRoute 接続の可用性が向上します。また、接続でリンク障害が発生した場合にフェイルオーバーを高速化するために、BFD を構成することもお勧めします。</t>
+          <t>このモードでは、ExpressRoute 接続の可用性が向上します。また、接続でリンク障害が発生した場合にフェイルオーバーを高速化するために、BFD を構成することもお勧めします。</t>
         </is>
       </c>
       <c r="E201" s="21" t="n"/>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="D202" s="21" t="inlineStr">
         <is>
-          <t>可用性ゾーン対応の Virtual Network Gateway を作成して回復性を高め、ディザスター リカバリーと高可用性のためにさまざまなリージョンで Virtual Network Gateway を計画します。</t>
+          <t>可用性ゾーン対応の Virtual Network Gateway を作成して回復性を高め、回復性、ディザスター リカバリー、高可用性のためにさまざまなリージョンで Virtual Network Gateway を計画します。</t>
         </is>
       </c>
       <c r="E202" s="21" t="n"/>
